--- a/biology/Botanique/Cochléaire_des_Pyrénées/Cochléaire_des_Pyrénées.xlsx
+++ b/biology/Botanique/Cochléaire_des_Pyrénées/Cochléaire_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cochl%C3%A9aire_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Cochléaire_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlearia pyrenaica
 La cochléaire des Pyrénées ou Cranson des Pyrénées (Cochlearia pyrenaica) est une espèce de plantes herbacées vivace de la famille des Brassicacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cochl%C3%A9aire_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Cochléaire_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 10 à maximum 40 cm, feuilles basales luisantes, entières, à long pétiole, souvent réniformes, fleurs blanches, floraison de mai à aout.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cochl%C3%A9aire_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Cochléaire_des_Pyrénées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses marécageuses, près des sources et des ruisselets d'eau claire et fraîche, contenant du calcaire dissous de préférence.
 On la trouve en Suisse dans les Préalpes, dans les cantons de Berne et Fribourg, à proximité d’une source alcaline ou au bord d’un ruisseau.
-Sa sensibilité aux changements physiques ou chimiques du milieu la rendent vulnérable[1].
+Sa sensibilité aux changements physiques ou chimiques du milieu la rendent vulnérable.
 </t>
         </is>
       </c>
